--- a/experiment/template/experiment_configurations.xlsx
+++ b/experiment/template/experiment_configurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nb\Dropbox\Cyano\Evolver\git\photo-dpu\experiment\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nborders/Dropbox/eVOLVER/dpu/experiment/antibiotic_evolution_241127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075661B1-5CBD-4941-A08F-C211C776132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC734AF-D5E6-9C44-B7DF-C8A7B461D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{AF0A681E-4FC9-47B3-B0CB-C8A6E2C1048C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="14000" xr2:uid="{AF0A681E-4FC9-47B3-B0CB-C8A6E2C1048C}"/>
   </bookViews>
   <sheets>
     <sheet name="light" sheetId="1" r:id="rId1"/>
@@ -437,24 +437,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6181C93-C0C9-4D98-99D6-30C9D45B84C6}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.89453125" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,23 +475,22 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -501,21 +499,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -524,21 +522,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -547,21 +545,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -570,21 +568,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>24</v>
@@ -593,260 +591,290 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
